--- a/Control_Ckt.xlsx
+++ b/Control_Ckt.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
   <si>
     <t>OPCODE</t>
   </si>
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t>M</t>
-  </si>
-  <si>
-    <t>Cn</t>
   </si>
   <si>
     <t xml:space="preserve">ALU </t>
@@ -564,22 +561,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X17"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="7" max="7" width="10.1796875" customWidth="1"/>
     <col min="9" max="9" width="9.1796875" customWidth="1"/>
-    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -594,7 +592,7 @@
         <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>31</v>
@@ -613,9 +611,8 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -650,38 +647,35 @@
         <v>36</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>49</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="X2" s="1"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>0</v>
@@ -702,7 +696,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -723,16 +717,16 @@
         <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" s="1">
         <v>0</v>
@@ -746,12 +740,9 @@
       <c r="V3" s="1">
         <v>0</v>
       </c>
-      <c r="W3" s="1">
-        <v>0</v>
-      </c>
-      <c r="X3" s="1"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>0</v>
@@ -772,7 +763,7 @@
         <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -793,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="1">
         <v>1</v>
@@ -805,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="S4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" s="1">
         <v>0</v>
@@ -816,12 +807,9 @@
       <c r="V4" s="1">
         <v>0</v>
       </c>
-      <c r="W4" s="1">
-        <v>0</v>
-      </c>
-      <c r="X4" s="1"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>0</v>
@@ -842,7 +830,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -859,17 +847,17 @@
       <c r="M5" s="1">
         <v>0</v>
       </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>43</v>
+      <c r="N5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -878,20 +866,17 @@
         <v>0</v>
       </c>
       <c r="T5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="1">
         <v>0</v>
       </c>
-      <c r="W5" s="1">
-        <v>0</v>
-      </c>
-      <c r="X5" s="1"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>0</v>
@@ -912,7 +897,7 @@
         <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -929,17 +914,17 @@
       <c r="M6" s="1">
         <v>0</v>
       </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>43</v>
+      <c r="N6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -951,17 +936,14 @@
         <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" s="1">
-        <v>1</v>
-      </c>
-      <c r="W6" s="1">
-        <v>0</v>
-      </c>
-      <c r="X6" s="1"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>0</v>
@@ -982,7 +964,7 @@
         <v>22</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -1003,16 +985,16 @@
         <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1">
         <v>0</v>
@@ -1026,12 +1008,9 @@
       <c r="V7" s="1">
         <v>0</v>
       </c>
-      <c r="W7" s="1">
-        <v>0</v>
-      </c>
-      <c r="X7" s="1"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
         <v>0</v>
@@ -1052,7 +1031,7 @@
         <v>23</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -1073,16 +1052,16 @@
         <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1">
         <v>0</v>
@@ -1096,12 +1075,9 @@
       <c r="V8" s="1">
         <v>0</v>
       </c>
-      <c r="W8" s="1">
-        <v>0</v>
-      </c>
-      <c r="X8" s="1"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <v>0</v>
@@ -1122,7 +1098,7 @@
         <v>24</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -1143,16 +1119,16 @@
         <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1">
         <v>0</v>
@@ -1166,12 +1142,9 @@
       <c r="V9" s="1">
         <v>0</v>
       </c>
-      <c r="W9" s="1">
-        <v>0</v>
-      </c>
-      <c r="X9" s="1"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>1</v>
@@ -1192,7 +1165,7 @@
         <v>25</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -1210,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>0</v>
       </c>
       <c r="Q10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="1">
         <v>0</v>
@@ -1236,12 +1209,9 @@
       <c r="V10" s="1">
         <v>0</v>
       </c>
-      <c r="W10" s="1">
-        <v>0</v>
-      </c>
-      <c r="X10" s="1"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
         <v>1</v>
@@ -1262,7 +1232,7 @@
         <v>26</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -1280,19 +1250,19 @@
         <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>0</v>
       </c>
       <c r="Q11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1">
         <v>0</v>
@@ -1306,12 +1276,9 @@
       <c r="V11" s="1">
         <v>0</v>
       </c>
-      <c r="W11" s="1">
-        <v>0</v>
-      </c>
-      <c r="X11" s="1"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
         <v>1</v>
@@ -1332,7 +1299,7 @@
         <v>27</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -1350,19 +1317,19 @@
         <v>1</v>
       </c>
       <c r="N12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>0</v>
       </c>
       <c r="Q12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="1">
         <v>0</v>
@@ -1376,12 +1343,9 @@
       <c r="V12" s="1">
         <v>0</v>
       </c>
-      <c r="W12" s="1">
-        <v>0</v>
-      </c>
-      <c r="X12" s="1"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>1</v>
@@ -1402,34 +1366,34 @@
         <v>28</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
       </c>
       <c r="R13" s="1">
         <v>0</v>
@@ -1440,18 +1404,15 @@
       <c r="T13" s="1">
         <v>0</v>
       </c>
-      <c r="U13" s="1">
-        <v>0</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="W13" s="1">
-        <v>1</v>
-      </c>
-      <c r="X13" s="1"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="U13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V13" s="1">
+        <v>1</v>
+      </c>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
         <v>1</v>
@@ -1472,7 +1433,7 @@
         <v>29</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
@@ -1490,19 +1451,19 @@
         <v>1</v>
       </c>
       <c r="N14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>0</v>
       </c>
       <c r="Q14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1">
         <v>0</v>
@@ -1516,12 +1477,9 @@
       <c r="V14" s="1">
         <v>0</v>
       </c>
-      <c r="W14" s="1">
-        <v>0</v>
-      </c>
-      <c r="X14" s="1"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1545,9 +1503,8 @@
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1571,9 +1528,8 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1597,7 +1553,6 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Control_Ckt.xlsx
+++ b/Control_Ckt.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>OPCODE</t>
   </si>
@@ -168,9 +168,6 @@
   </si>
   <si>
     <t>MemtoReg</t>
-  </si>
-  <si>
-    <t>ALUOP</t>
   </si>
   <si>
     <t>MemWrite</t>
@@ -561,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -574,10 +571,10 @@
     <col min="16" max="16" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -610,9 +607,8 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -650,13 +646,13 @@
         <v>43</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>47</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>46</v>
@@ -665,17 +661,14 @@
         <v>48</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="V2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="W2" s="1"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>0</v>
@@ -737,12 +730,9 @@
       <c r="U3" s="1">
         <v>0</v>
       </c>
-      <c r="V3" s="1">
-        <v>0</v>
-      </c>
-      <c r="W3" s="1"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>0</v>
@@ -804,12 +794,9 @@
       <c r="U4" s="1">
         <v>0</v>
       </c>
-      <c r="V4" s="1">
-        <v>0</v>
-      </c>
-      <c r="W4" s="1"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>0</v>
@@ -863,20 +850,17 @@
         <v>0</v>
       </c>
       <c r="S5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>0</v>
       </c>
-      <c r="V5" s="1">
-        <v>0</v>
-      </c>
-      <c r="W5" s="1"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>0</v>
@@ -933,17 +917,14 @@
         <v>0</v>
       </c>
       <c r="T6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" s="1">
-        <v>1</v>
-      </c>
-      <c r="V6" s="1">
-        <v>0</v>
-      </c>
-      <c r="W6" s="1"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>0</v>
@@ -1005,12 +986,9 @@
       <c r="U7" s="1">
         <v>0</v>
       </c>
-      <c r="V7" s="1">
-        <v>0</v>
-      </c>
-      <c r="W7" s="1"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
         <v>0</v>
@@ -1072,12 +1050,9 @@
       <c r="U8" s="1">
         <v>0</v>
       </c>
-      <c r="V8" s="1">
-        <v>0</v>
-      </c>
-      <c r="W8" s="1"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <v>0</v>
@@ -1139,12 +1114,9 @@
       <c r="U9" s="1">
         <v>0</v>
       </c>
-      <c r="V9" s="1">
-        <v>0</v>
-      </c>
-      <c r="W9" s="1"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>1</v>
@@ -1206,12 +1178,9 @@
       <c r="U10" s="1">
         <v>0</v>
       </c>
-      <c r="V10" s="1">
-        <v>0</v>
-      </c>
-      <c r="W10" s="1"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
         <v>1</v>
@@ -1273,12 +1242,9 @@
       <c r="U11" s="1">
         <v>0</v>
       </c>
-      <c r="V11" s="1">
-        <v>0</v>
-      </c>
-      <c r="W11" s="1"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
         <v>1</v>
@@ -1340,12 +1306,9 @@
       <c r="U12" s="1">
         <v>0</v>
       </c>
-      <c r="V12" s="1">
-        <v>0</v>
-      </c>
-      <c r="W12" s="1"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>1</v>
@@ -1401,18 +1364,15 @@
       <c r="S13" s="1">
         <v>0</v>
       </c>
-      <c r="T13" s="1">
-        <v>0</v>
-      </c>
-      <c r="U13" s="1" t="s">
+      <c r="T13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V13" s="1">
-        <v>1</v>
-      </c>
-      <c r="W13" s="1"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="U13" s="1">
+        <v>1</v>
+      </c>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
         <v>1</v>
@@ -1474,12 +1434,9 @@
       <c r="U14" s="1">
         <v>0</v>
       </c>
-      <c r="V14" s="1">
-        <v>0</v>
-      </c>
-      <c r="W14" s="1"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1502,9 +1459,8 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1527,9 +1483,8 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1552,7 +1507,6 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
